--- a/data/long_dif/P19_2-Estudios-long_dif.xlsx
+++ b/data/long_dif/P19_2-Estudios-long_dif.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +589,62 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -627,52 +675,82 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>21,96%</t>
+          <t>21,33%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>26,49%</t>
+          <t>30,95%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>23,9%</t>
+          <t>22,91%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>21,23%</t>
+          <t>27,51%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>22,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>21,08%</t>
+          <t>19,36%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>21,56%</t>
+          <t>19,91%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>24,11%</t>
+          <t>22,12%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>22,36%</t>
+          <t>17,82%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>20,28%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>24,93%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>22,49%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>22,11%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,28; 29,64</t>
+          <t>13,65; 30,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,62; 41,83</t>
+          <t>20,05; 51,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,66; 30,77</t>
+          <t>17,13; 29,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,73; 28,9</t>
+          <t>14,99; 52,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,73; 28,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,14; 26,54</t>
+          <t>12,72; 26,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>16,74; 26,22</t>
+          <t>13,44; 27,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,94; 31,83</t>
+          <t>17,76; 27,66</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>18,76; 27,17</t>
+          <t>12,25; 24,31</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>14,97; 26,38</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>18,95; 38,93</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>18,46; 26,77</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>15,75; 36,5</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -733,52 +841,82 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>61,65%</t>
+          <t>56,84%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>54,48%</t>
+          <t>49,66%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>48,87%</t>
+          <t>49,15%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>49,88%</t>
+          <t>44,95%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>52,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>52,48%</t>
+          <t>52,77%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>55,27%</t>
+          <t>54,67%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>53,65%</t>
+          <t>54,78%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>50,84%</t>
+          <t>54,53%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>54,66%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>52,39%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>52,17%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>50,29%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>53,07; 71,38</t>
+          <t>45,68; 70,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>43,02; 66,73</t>
+          <t>36,42; 60,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>39,76; 55,61</t>
+          <t>39,83; 56,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>42,1; 57,92</t>
+          <t>28,8; 56,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>45,68; 62,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>44,71; 59,28</t>
+          <t>43,47; 62,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>49,21; 61,73</t>
+          <t>46,17; 63,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>46,8; 60,78</t>
+          <t>49,07; 60,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>45,06; 56,44</t>
+          <t>45,71; 63,96</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>47,2; 63,73</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>43,08; 59,11</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>46,36; 56,78</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>41,23; 57,76</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -839,52 +1007,82 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>16,38%</t>
+          <t>21,83%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>19,03%</t>
+          <t>19,39%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>27,23%</t>
+          <t>27,94%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>28,89%</t>
+          <t>27,54%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>24,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>26,45%</t>
+          <t>27,87%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>23,16%</t>
+          <t>25,42%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>22,24%</t>
+          <t>23,1%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>26,8%</t>
+          <t>27,65%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>25,06%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>22,68%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>25,34%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>27,6%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -897,104 +1095,160 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,94; 22,45</t>
+          <t>13,65; 31,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,17; 26,08</t>
+          <t>11,71; 28,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,39; 40,02</t>
+          <t>20,38; 42,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>22,48; 36,01</t>
+          <t>16,4; 37,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,19; 31,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,33; 36,27</t>
+          <t>19,74; 37,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,85; 28,3</t>
+          <t>18,45; 33,89</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,15; 27,04</t>
+          <t>18,45; 28,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>21,68; 33,76</t>
+          <t>20,32; 36,77</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>18,65; 31,68</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>17,21; 28,56</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>21,0; 32,56</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>21,51; 34,03</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>29,88%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>20,87%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19,2%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>29,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>18,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>23,14%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>29,66%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>19,58%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>21,13%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,100 +1261,164 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>25,11; 35,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,47; 25,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,73; 24,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>25,51; 33,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,52; 22,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>19,77; 27,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>26,14; 33,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,62; 22,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,39; 24,36</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>51,23%</t>
+          <t>31,89%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>49,96%</t>
+          <t>18,73%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>61,19%</t>
+          <t>19,29%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>48,43%</t>
+          <t>13,88%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>53,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>53,25%</t>
+          <t>29,97%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>49,84%</t>
+          <t>19,6%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>51,76%</t>
+          <t>23,0%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>57,31%</t>
+          <t>23,57%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>30,9%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>19,16%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>21,11%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>18,54%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1113,47 +1431,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>44,97; 57,04</t>
+          <t>25,11; 41,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>43,94; 55,52</t>
+          <t>14,41; 23,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>55,82; 66,16</t>
+          <t>15,73; 23,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>43,78; 52,97</t>
+          <t>10,36; 18,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>48,36; 58,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>48,83; 57,56</t>
+          <t>25,09; 35,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>46,24; 53,57</t>
+          <t>15,2; 24,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>47,88; 55,62</t>
+          <t>19,63; 27,22</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>53,93; 60,75</t>
+          <t>19,2; 28,38</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>26,58; 36,59</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>15,86; 22,58</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>18,27; 24,02</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>15,57; 21,69</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1161,52 +1509,82 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>18,89%</t>
+          <t>49,86%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>29,17%</t>
+          <t>50,59%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>19,6%</t>
+          <t>60,4%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>22,12%</t>
+          <t>59,25%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>28,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>23,6%</t>
+          <t>44,84%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>20,5%</t>
+          <t>51,71%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>28,65%</t>
+          <t>52,73%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>21,56%</t>
+          <t>53,7%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>47,28%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>51,15%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>56,64%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>56,58%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1219,104 +1597,160 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,34; 22,99</t>
+          <t>42,21; 57,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>24,19; 35,11</t>
+          <t>43,68; 57,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,93; 23,71</t>
+          <t>55,19; 65,42</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>18,26; 26,49</t>
+          <t>52,96; 65,59</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>23,72; 32,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>20,27; 27,7</t>
+          <t>38,9; 50,68</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>17,89; 23,28</t>
+          <t>45,93; 57,47</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>25,58; 32,71</t>
+          <t>48,46; 57,23</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>18,77; 24,05</t>
+          <t>48,29; 59,13</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>42,49; 52,36</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>47,09; 55,67</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>53,25; 60,58</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>52,36; 60,9</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>24,79%</t>
+          <t>18,24%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>18,44%</t>
+          <t>30,68%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>19,37%</t>
+          <t>20,31%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>28,24%</t>
+          <t>26,86%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>17,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>23,03%</t>
+          <t>25,19%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>26,54%</t>
+          <t>28,69%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>17,84%</t>
+          <t>24,27%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>21,26%</t>
+          <t>22,73%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>21,82%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>29,68%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>22,25%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>24,87%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1329,47 +1763,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>20,13; 30,15</t>
+          <t>13,91; 23,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>14,2; 23,3</t>
+          <t>24,3; 38,36</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>15,52; 23,5</t>
+          <t>16,66; 24,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>23,66; 33,43</t>
+          <t>20,93; 32,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>13,36; 21,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>19,08; 27,17</t>
+          <t>20,24; 31,61</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>23,09; 30,2</t>
+          <t>23,98; 34,2</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>15,11; 21,18</t>
+          <t>20,38; 28,42</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>18,25; 24,1</t>
+          <t>18,59; 28,26</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>18,37; 26,23</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>25,35; 34,23</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>19,5; 25,25</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>21,23; 28,8</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1377,52 +1841,82 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>52,76%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>49,53%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>60,14%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>55,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>52,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>53,34%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>54,05%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>51,08%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>56,63%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1435,100 +1929,164 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>46,37; 58,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>43,19; 56,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>54,53; 65,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>49,99; 60,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>47,63; 58,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>48,7; 57,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>49,62; 57,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>46,73; 55,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>52,82; 60,68</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>22,46%</t>
+          <t>24,17%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>32,03%</t>
+          <t>17,72%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>20,5%</t>
+          <t>19,51%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>16,46%</t>
+          <t>21,18%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>30,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>23,62%</t>
+          <t>28,65%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>19,42%</t>
+          <t>18,27%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>31,08%</t>
+          <t>23,01%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>22,11%</t>
+          <t>16,68%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>26,56%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>18,0%</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>21,31%</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>18,85%</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1541,104 +2099,160 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>17,84; 27,52</t>
+          <t>17,78; 30,73</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>25,78; 39,15</t>
+          <t>13,39; 23,89</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>16,3; 26,37</t>
+          <t>15,64; 24,11</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>12,65; 20,62</t>
+          <t>16,02; 30,15</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>25,43; 35,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>19,82; 27,52</t>
+          <t>22,81; 35,11</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>16,42; 22,46</t>
+          <t>14,37; 23,54</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>27,14; 35,66</t>
+          <t>19,52; 27,48</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>18,88; 25,73</t>
+          <t>13,16; 20,83</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>22,49; 31,28</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>15,09; 22,11</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>18,65; 24,45</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>15,58; 23,88</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>26,83%</t>
+          <t>52,56%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>21,15%</t>
+          <t>50,96%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>20,24%</t>
+          <t>59,92%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>27,27%</t>
+          <t>56,63%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>18,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>22,61%</t>
+          <t>55,37%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>27,05%</t>
+          <t>51,18%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>19,96%</t>
+          <t>53,35%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>21,45%</t>
+          <t>57,93%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>54,06%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>51,07%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>56,54%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>57,3%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1651,47 +2265,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>23,4; 30,51</t>
+          <t>45,39; 61,55</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>18,04; 24,81</t>
+          <t>44,37; 57,66</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>17,84; 23,55</t>
+          <t>54,0; 65,59</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>24,64; 30,36</t>
+          <t>48,75; 62,75</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>16,4; 21,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>20,35; 25,33</t>
+          <t>48,92; 61,63</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>24,93; 29,64</t>
+          <t>44,72; 56,71</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>17,75; 22,35</t>
+          <t>48,44; 58,3</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>19,53; 23,37</t>
+          <t>52,25; 63,46</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>48,68; 59,07</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>46,02; 55,23</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>53,0; 59,96</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>52,53; 61,79</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1699,52 +2343,82 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>53,71%</t>
+          <t>23,27%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>50,68%</t>
+          <t>31,32%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>58,28%</t>
+          <t>20,56%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>50,77%</t>
+          <t>22,19%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>53,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>53,1%</t>
+          <t>15,98%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>52,21%</t>
+          <t>30,56%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>51,93%</t>
+          <t>23,64%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>55,63%</t>
+          <t>25,39%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>19,38%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>30,93%</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>22,14%</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>23,85%</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1757,47 +2431,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>49,89; 58,12</t>
+          <t>17,28; 29,68</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>46,75; 55,12</t>
+          <t>25,1; 38,28</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>54,39; 61,73</t>
+          <t>15,86; 26,46</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>47,5; 54,07</t>
+          <t>17,75; 28,34</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>49,97; 56,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>49,98; 55,98</t>
+          <t>11,83; 21,13</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>49,63; 54,91</t>
+          <t>25,57; 36,09</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>49,39; 54,84</t>
+          <t>19,86; 27,72</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>53,34; 58,04</t>
+          <t>20,76; 30,75</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>15,91; 23,22</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>26,89; 35,65</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>19,08; 25,41</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>20,49; 27,64</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1805,52 +2509,82 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>19,46%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>28,17%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>21,48%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>21,96%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>28,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>24,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>20,74%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>28,11%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>22,92%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1863,60 +2597,1434 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>17,01; 22,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>24,68; 31,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>18,65; 25,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>19,36; 24,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>25,08; 31,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>21,84; 27,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>18,81; 22,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>25,61; 30,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>20,99; 25,27</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>26,92%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>25,08%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>25,89%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>17,37%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>26,43%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>21,49%</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>22,43; 32,45</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>18,0; 32,74</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>21,46; 30,91</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>12,13; 24,25</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>23,27; 30,1</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>16,79; 26,8</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>54,11%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>48,03%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>53,79%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>57,01%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>53,96%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>52,22%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>48,0; 59,8</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>39,06; 58,43</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>48,49; 58,87</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>49,28; 64,71</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>50,35; 58,22</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>45,99; 58,14</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>18,97%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>26,89%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>20,32%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>25,62%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>19,62%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>26,3%</t>
+        </is>
+      </c>
+      <c r="O32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>15,16; 23,8</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>19,49; 36,11</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>16,07; 24,52</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>18,88; 33,17</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>16,74; 22,72</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>21,38; 32,35</t>
+        </is>
+      </c>
+      <c r="O33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>27,25%</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>21,36%</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>20,11%</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>18,98%</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>26,97%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>18,88%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>22,8%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>19,83%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>27,11%</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>20,11%</t>
+        </is>
+      </c>
+      <c r="O36" s="2" t="inlineStr">
+        <is>
+          <t>21,48%</t>
+        </is>
+      </c>
+      <c r="P36" s="2" t="inlineStr">
+        <is>
+          <t>19,41%</t>
+        </is>
+      </c>
+      <c r="Q36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>23,83; 30,54</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>18,15; 25,23</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>17,28; 22,78</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>15,36; 27,24</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>24,07; 29,74</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>16,3; 21,51</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>20,34; 25,36</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>16,87; 22,69</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>24,89; 29,35</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>18,06; 22,42</t>
+        </is>
+      </c>
+      <c r="O37" s="2" t="inlineStr">
+        <is>
+          <t>19,68; 23,52</t>
+        </is>
+      </c>
+      <c r="P37" s="2" t="inlineStr">
+        <is>
+          <t>17,01; 22,84</t>
+        </is>
+      </c>
+      <c r="Q37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>52,85%</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>50,05%</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>57,92%</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>55,6%</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>51,34%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>52,95%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>53,41%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>55,37%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>52,08%</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>51,51%</t>
+        </is>
+      </c>
+      <c r="O38" s="2" t="inlineStr">
+        <is>
+          <t>55,63%</t>
+        </is>
+      </c>
+      <c r="P38" s="2" t="inlineStr">
+        <is>
+          <t>55,48%</t>
+        </is>
+      </c>
+      <c r="Q38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>49,16; 56,93</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>45,95; 54,36</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>54,52; 61,61</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>49,86; 60,18</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>48,04; 54,53</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>49,41; 56,13</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>50,83; 56,47</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>51,63; 58,82</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>49,81; 54,5</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>48,8; 54,15</t>
+        </is>
+      </c>
+      <c r="O39" s="2" t="inlineStr">
+        <is>
+          <t>53,01; 57,78</t>
+        </is>
+      </c>
+      <c r="P39" s="2" t="inlineStr">
+        <is>
+          <t>51,98; 58,26</t>
+        </is>
+      </c>
+      <c r="Q39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>19,9%</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>28,59%</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>21,97%</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>25,42%</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>21,69%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>28,18%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>23,79%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>24,81%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>20,81%</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>28,38%</t>
+        </is>
+      </c>
+      <c r="O40" s="2" t="inlineStr">
+        <is>
+          <t>22,89%</t>
+        </is>
+      </c>
+      <c r="P40" s="2" t="inlineStr">
+        <is>
+          <t>25,11%</t>
+        </is>
+      </c>
+      <c r="Q40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>17,3; 22,34</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>24,87; 32,78</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>18,97; 25,64</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>20,87; 29,12</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>19,14; 24,26</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>25,44; 31,22</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>21,36; 26,3</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>22,06; 28,3</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>18,91; 22,7</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>25,91; 30,97</t>
+        </is>
+      </c>
+      <c r="O41" s="2" t="inlineStr">
+        <is>
+          <t>21,01; 25,04</t>
+        </is>
+      </c>
+      <c r="P41" s="2" t="inlineStr">
+        <is>
+          <t>22,58; 27,72</t>
+        </is>
+      </c>
+      <c r="Q41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+  <mergeCells count="9">
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_dif/P19_2-Estudios-long_dif.xlsx
+++ b/data/long_dif/P19_2-Estudios-long_dif.xlsx
@@ -680,7 +680,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -821,7 +821,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -962,7 +962,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1248,7 +1248,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1389,7 +1389,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1675,7 +1675,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1816,7 +1816,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1961,7 +1961,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -2102,7 +2102,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -2243,7 +2243,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
